--- a/gr_optimization/Input_Output/BuyflowValidation/Merchandising Input/MeaningfulBeauty/mb5deluxe25offb15.xlsx
+++ b/gr_optimization/Input_Output/BuyflowValidation/Merchandising Input/MeaningfulBeauty/mb5deluxe25offb15.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23524"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23621"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://guthyrenker.sharepoint.com/sites/ecommerce/Shared Documents/Merchandising Data Repo/MeaningfulBeauty/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="301" documentId="8_{2B5D5AEA-CA77-4E82-B441-A7AB67E4925F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{99EF9A98-AF66-47A7-A77A-254B5F4ACBBD}"/>
+  <xr:revisionPtr revIDLastSave="302" documentId="8_{2B5D5AEA-CA77-4E82-B441-A7AB67E4925F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{87C0C26E-DADA-496B-992F-ED812BD2F720}"/>
   <bookViews>
     <workbookView xWindow="10350" yWindow="-16395" windowWidth="29040" windowHeight="16440" xr2:uid="{E3978D3D-5F38-441C-8AA2-DCC4FA99A8DC}"/>
   </bookViews>
@@ -695,12 +695,18 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="6">
@@ -783,7 +789,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -829,6 +835,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1156,8 +1165,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78C1E688-E64E-4E18-824F-B6765FB95E1B}">
   <dimension ref="A1:J102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="A56" sqref="A56:D56"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A65" sqref="A65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1225,7 +1234,7 @@
       <c r="G2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="18" t="s">
         <v>15</v>
       </c>
       <c r="I2" s="3">
@@ -1288,12 +1297,12 @@
       <c r="J7" s="16"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="20"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="21"/>
       <c r="E8" s="16"/>
       <c r="F8" s="16"/>
       <c r="G8" s="16"/>
@@ -1926,12 +1935,12 @@
       <c r="D55" s="6"/>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="18" t="s">
+      <c r="A56" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="B56" s="19"/>
-      <c r="C56" s="19"/>
-      <c r="D56" s="20"/>
+      <c r="B56" s="20"/>
+      <c r="C56" s="20"/>
+      <c r="D56" s="21"/>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="4" t="s">
